--- a/src/analysis_examples/circadb/results_lomb/cosinor_10358631_hmcn1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10358631_hmcn1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2173866034468157, 0.2815293308075991]</t>
+          <t>[0.21704302964141664, 0.2818729046129982]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.489120021209601e-13</v>
+        <v>3.064215547965432e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.489120021209601e-13</v>
+        <v>3.064215547965432e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.597526594618233</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.7233160902574642, -1.471737098979002]</t>
+          <t>[-1.7358950398213873, -1.459158149415079]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S2" t="n">
         <v>0.5331124882986802</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.511809559881836, 0.5544154167155244]</t>
+          <t>[0.511803357373687, 0.5544216192236734]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>5.913953953954085</v>
       </c>
       <c r="X2" t="n">
-        <v>5.448288288288408</v>
+        <v>5.401721721721841</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.379619619619762</v>
+        <v>6.426186186186329</v>
       </c>
     </row>
   </sheetData>
